--- a/java_latest.xlsx
+++ b/java_latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7725" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="2435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="2451">
   <si>
     <t>USER</t>
   </si>
@@ -7529,6 +7529,54 @@
   </si>
   <si>
     <t>s1 and s4</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>Win Jre/Inte</t>
+  </si>
+  <si>
+    <t>Mac JRE/Inter</t>
+  </si>
+  <si>
+    <t>Unix JREInter</t>
+  </si>
+  <si>
+    <t>Source code</t>
+  </si>
+  <si>
+    <t>Intermediate Binary code</t>
+  </si>
+  <si>
+    <t>Win Bin code</t>
+  </si>
+  <si>
+    <t>Mac Bin code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>plus or minus</t>
+  </si>
+  <si>
+    <t>byte balance=127;</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>0 - 127</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -7709,7 +7757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -8025,11 +8073,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8467,6 +8526,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8483,6 +8545,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18861,10 +18926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD60"/>
+  <dimension ref="A1:XFD98"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32:Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18900,13 +18965,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="227" t="s">
+      <c r="H3" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="230"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -18943,20 +19008,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="230" t="s">
+      <c r="G6" s="231" t="s">
         <v>1726</v>
       </c>
-      <c r="H6" s="231"/>
+      <c r="H6" s="232"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="230" t="s">
+      <c r="J6" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="231"/>
+      <c r="K6" s="232"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="230" t="s">
+      <c r="M6" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="231"/>
+      <c r="N6" s="232"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="129" t="s">
@@ -18980,20 +19045,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="230" t="s">
+      <c r="G8" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="231"/>
+      <c r="H8" s="232"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="230" t="s">
+      <c r="J8" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="231"/>
+      <c r="K8" s="232"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="230" t="s">
+      <c r="M8" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="231"/>
+      <c r="N8" s="232"/>
       <c r="P8" t="s">
         <v>1732</v>
       </c>
@@ -19889,6 +19954,150 @@
       <c r="M60" s="158"/>
       <c r="N60" s="158"/>
       <c r="O60" s="158"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="E86" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="E87" s="55">
+        <v>128</v>
+      </c>
+      <c r="F87" s="61">
+        <v>64</v>
+      </c>
+      <c r="G87" s="61">
+        <v>32</v>
+      </c>
+      <c r="H87" s="61">
+        <v>16</v>
+      </c>
+      <c r="I87" s="61">
+        <v>8</v>
+      </c>
+      <c r="J87" s="61">
+        <v>4</v>
+      </c>
+      <c r="K87" s="61">
+        <v>2</v>
+      </c>
+      <c r="L87" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="E88" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" t="s">
+        <v>50</v>
+      </c>
+      <c r="I88" t="s">
+        <v>49</v>
+      </c>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" t="s">
+        <v>47</v>
+      </c>
+      <c r="L88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="227">
+        <v>1</v>
+      </c>
+      <c r="F89" s="138">
+        <v>1</v>
+      </c>
+      <c r="G89" s="138">
+        <v>1</v>
+      </c>
+      <c r="H89" s="138">
+        <v>1</v>
+      </c>
+      <c r="I89" s="138">
+        <v>1</v>
+      </c>
+      <c r="J89" s="138">
+        <v>1</v>
+      </c>
+      <c r="K89" s="138">
+        <v>1</v>
+      </c>
+      <c r="L89" s="138">
+        <v>1</v>
+      </c>
+      <c r="M89" s="234">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="E90" s="227">
+        <v>1</v>
+      </c>
+      <c r="F90" s="138">
+        <v>1</v>
+      </c>
+      <c r="G90" s="138">
+        <v>1</v>
+      </c>
+      <c r="H90" s="138">
+        <v>1</v>
+      </c>
+      <c r="I90" s="138">
+        <v>1</v>
+      </c>
+      <c r="J90" s="138">
+        <v>1</v>
+      </c>
+      <c r="K90" s="138">
+        <v>1</v>
+      </c>
+      <c r="L90" s="138">
+        <v>1</v>
+      </c>
+      <c r="N90" s="169">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="E94" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10">
+      <c r="H97" t="s">
+        <v>2448</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2449</v>
+      </c>
+      <c r="J97">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10">
+      <c r="H98" t="s">
+        <v>2450</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -30156,7 +30365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
@@ -32891,11 +33100,11 @@
       <c r="L6" s="47" t="s">
         <v>1663</v>
       </c>
-      <c r="M6" s="232" t="s">
+      <c r="M6" s="233" t="s">
         <v>1664</v>
       </c>
-      <c r="N6" s="232"/>
-      <c r="O6" s="232"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="233"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -33521,8 +33730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:N18"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34550,60 +34759,104 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:M89"/>
+  <dimension ref="D2:R89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="2" spans="4:18">
+      <c r="O2" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="4" spans="4:18">
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18">
+      <c r="O6" s="32" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18">
       <c r="D7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="4:18">
       <c r="E8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
+      <c r="M8" s="32" t="s">
+        <v>2438</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2439</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18">
       <c r="E9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:18">
       <c r="F10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="4:8">
+      <c r="M10" t="s">
+        <v>2443</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18">
       <c r="G11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:18">
       <c r="F12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="13" spans="4:8">
+      <c r="M12" t="s">
+        <v>2435</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2436</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18">
       <c r="G13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:18">
       <c r="G14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:18">
       <c r="H15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:18">
       <c r="G16" t="s">
         <v>155</v>
       </c>
